--- a/data/trans_orig/P15A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>33715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23650</v>
+        <v>23126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47448</v>
+        <v>46880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06823985733103956</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04786757839635807</v>
+        <v>0.04680787249663568</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09603593320807166</v>
+        <v>0.09488585325198796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>10587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5625</v>
+        <v>5093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18087</v>
+        <v>18892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02264697446296609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01203227476059114</v>
+        <v>0.01089448474955101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03869026702457674</v>
+        <v>0.04041197669996287</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -786,19 +786,19 @@
         <v>44302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32765</v>
+        <v>33102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59495</v>
+        <v>59775</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04607344911730121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03407514804274621</v>
+        <v>0.03442562897069162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06187368957285112</v>
+        <v>0.06216549251766823</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>460349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446616</v>
+        <v>447184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>470414</v>
+        <v>470938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9317601426689605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9039640667919284</v>
+        <v>0.905114146748012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9521324216036422</v>
+        <v>0.9531921275033647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>478</v>
@@ -836,19 +836,19 @@
         <v>456902</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>449402</v>
+        <v>448597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461864</v>
+        <v>462396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.977353025537034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9613097329754232</v>
+        <v>0.9595880233000371</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9879677252394089</v>
+        <v>0.9891055152504491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>944</v>
@@ -857,19 +857,19 @@
         <v>917251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>902058</v>
+        <v>901778</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>928788</v>
+        <v>928451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9539265508826988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.938126310427149</v>
+        <v>0.9378345074823321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.965924851957254</v>
+        <v>0.9655743710293084</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>34936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25211</v>
+        <v>23846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50026</v>
+        <v>48196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0475008848386313</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0342774439510301</v>
+        <v>0.03242203449060762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06801669113352521</v>
+        <v>0.06552926795911054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -982,19 +982,19 @@
         <v>18553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11284</v>
+        <v>11182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30508</v>
+        <v>29310</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02966092006240086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01803987739467787</v>
+        <v>0.01787764685120291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04877379129687974</v>
+        <v>0.04685924187513043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -1003,19 +1003,19 @@
         <v>53489</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41357</v>
+        <v>40413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69557</v>
+        <v>71107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03930181667955721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03038739359495512</v>
+        <v>0.02969407111348766</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05110813482947919</v>
+        <v>0.05224671324692565</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>700553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>685463</v>
+        <v>687293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>710278</v>
+        <v>711643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9524991151613688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.931983308866475</v>
+        <v>0.9344707320408895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9657225560489701</v>
+        <v>0.9675779655093925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>574</v>
@@ -1053,19 +1053,19 @@
         <v>606941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594986</v>
+        <v>596184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>614210</v>
+        <v>614312</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9703390799375992</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9512262087031205</v>
+        <v>0.9531407581248695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9819601226053225</v>
+        <v>0.9821223531487971</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1244</v>
@@ -1074,19 +1074,19 @@
         <v>1307493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1291425</v>
+        <v>1289875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1319625</v>
+        <v>1320569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9606981833204428</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9488918651705212</v>
+        <v>0.9477532867530742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.969612606405045</v>
+        <v>0.9703059288865123</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8539</v>
+        <v>8301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24581</v>
+        <v>24996</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02337897993277795</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01337044846089805</v>
+        <v>0.01299783748599055</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03848775426915706</v>
+        <v>0.03913722763076333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>13416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6958</v>
+        <v>7375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22049</v>
+        <v>23871</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01945002597090942</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01008849904191798</v>
+        <v>0.01069181023054055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03196736861675042</v>
+        <v>0.0346081445349322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>28347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19482</v>
+        <v>19712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40643</v>
+        <v>40528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02133896994168354</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0146658665680563</v>
+        <v>0.01483873611601029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03059537365805411</v>
+        <v>0.03050877422141032</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>623737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>614087</v>
+        <v>613672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>630129</v>
+        <v>630367</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9766210200672221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9615122457308429</v>
+        <v>0.9608627723692367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9866295515391019</v>
+        <v>0.9870021625140095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -1270,19 +1270,19 @@
         <v>676328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667695</v>
+        <v>665873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682786</v>
+        <v>682369</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9805499740290906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9680326313832511</v>
+        <v>0.9653918554650692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.989911500958082</v>
+        <v>0.9893081897694597</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1244</v>
@@ -1291,19 +1291,19 @@
         <v>1300065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1287769</v>
+        <v>1287884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1308930</v>
+        <v>1308700</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9786610300583165</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9694046263419461</v>
+        <v>0.9694912257785896</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9853341334319439</v>
+        <v>0.9851612638839897</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>19538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12099</v>
+        <v>12039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29915</v>
+        <v>30423</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03763520073243275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02330495590347866</v>
+        <v>0.02319031399269345</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05762256265619153</v>
+        <v>0.05860201807712652</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>9665</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5006</v>
+        <v>4912</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17731</v>
+        <v>17718</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01874342969057755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00970770765295959</v>
+        <v>0.00952602726946181</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03438538805368774</v>
+        <v>0.03436055332082669</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>29203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19892</v>
+        <v>20466</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41423</v>
+        <v>42673</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02822131045515435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01922283479944783</v>
+        <v>0.01977808328767374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0400302823947445</v>
+        <v>0.04123831634090987</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>499609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>489232</v>
+        <v>488724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507048</v>
+        <v>507108</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9623647992675672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9423774373438085</v>
+        <v>0.9413979819228737</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9766950440965217</v>
+        <v>0.9768096860073067</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>493</v>
@@ -1487,19 +1487,19 @@
         <v>505977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>497911</v>
+        <v>497924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>510636</v>
+        <v>510730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9812565703094225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9656146119463125</v>
+        <v>0.9656394466791735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9902922923470405</v>
+        <v>0.9904739727305383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>958</v>
@@ -1508,19 +1508,19 @@
         <v>1005586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>993366</v>
+        <v>992116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1014897</v>
+        <v>1014323</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9717786895448457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9599697176052555</v>
+        <v>0.9587616836590901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9807771652005521</v>
+        <v>0.9802219167123263</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4544</v>
+        <v>4464</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17096</v>
+        <v>17422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02423170440327926</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01175079294110828</v>
+        <v>0.01154320567519767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04420804064978522</v>
+        <v>0.04505222595347783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>9871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5048</v>
+        <v>4707</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17378</v>
+        <v>17771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02443472565195966</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01249500502133328</v>
+        <v>0.01165179601827954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04301512637785454</v>
+        <v>0.04398853148707832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1654,19 +1654,19 @@
         <v>19242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11632</v>
+        <v>12193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30181</v>
+        <v>30337</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02433543293666439</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01471054935923377</v>
+        <v>0.01542042358383187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03817067624656295</v>
+        <v>0.03836710405178652</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>377339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>369614</v>
+        <v>369288</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>382166</v>
+        <v>382246</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9757682955967207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9557919593502148</v>
+        <v>0.954947774046522</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9882492070588917</v>
+        <v>0.9884567943248023</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>386</v>
@@ -1704,19 +1704,19 @@
         <v>394115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>386608</v>
+        <v>386215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>398938</v>
+        <v>399279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9755652743480403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9569848736221453</v>
+        <v>0.9560114685129216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9875049949786666</v>
+        <v>0.9883482039817205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>769</v>
@@ -1725,19 +1725,19 @@
         <v>771454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>760515</v>
+        <v>760359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>779064</v>
+        <v>778503</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9756645670633356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.961829323753437</v>
+        <v>0.9616328959482134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9852894506407661</v>
+        <v>0.984579576416168</v>
       </c>
     </row>
     <row r="18">
@@ -1832,16 +1832,16 @@
         <v>1773</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10165</v>
+        <v>10325</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01590214460711714</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006060600097171652</v>
+        <v>0.006059907883244718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03474089362698084</v>
+        <v>0.03528831609696646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>9114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4802</v>
+        <v>4463</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17134</v>
+        <v>16494</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02657604649782959</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01400175870245663</v>
+        <v>0.01301490518354939</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04996183909512537</v>
+        <v>0.04809730437089824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -1871,19 +1871,19 @@
         <v>13767</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8121</v>
+        <v>7526</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22076</v>
+        <v>21811</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0216619336684556</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01277789591274456</v>
+        <v>0.01184156771063625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0347363640612424</v>
+        <v>0.03432073110160169</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>287930</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282418</v>
+        <v>282258</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>290810</v>
@@ -1909,10 +1909,10 @@
         <v>0.9840978553928829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9652591063730191</v>
+        <v>0.9647116839030333</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9939393999028283</v>
+        <v>0.9939400921167552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>361</v>
@@ -1921,19 +1921,19 @@
         <v>333820</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>325800</v>
+        <v>326440</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>338132</v>
+        <v>338471</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9734239535021704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9500381609048746</v>
+        <v>0.9519026956291018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9859982412975434</v>
+        <v>0.9869850948164507</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -1942,19 +1942,19 @@
         <v>621750</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>613441</v>
+        <v>613706</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>627396</v>
+        <v>627991</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9783380663315444</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9652636359387576</v>
+        <v>0.9656792688983984</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9872221040872554</v>
+        <v>0.9881584322893638</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>5933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2348</v>
+        <v>2521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12907</v>
+        <v>12831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02826640240971072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01118936619637077</v>
+        <v>0.01201362170437184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06149771232616809</v>
+        <v>0.06113606871119733</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2067,19 +2067,19 @@
         <v>22600</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14588</v>
+        <v>14555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33964</v>
+        <v>34539</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06768416003032898</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04368896908294011</v>
+        <v>0.04358920924098714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1017169440373229</v>
+        <v>0.1034388416004287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2088,19 +2088,19 @@
         <v>28533</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18515</v>
+        <v>19578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41589</v>
+        <v>41710</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05247037844179165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03404757542819291</v>
+        <v>0.03600226393628255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07648002953426226</v>
+        <v>0.07670177924799322</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>203950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196976</v>
+        <v>197052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207535</v>
+        <v>207362</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9717335975902893</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9385022876738319</v>
+        <v>0.9388639312888025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9888106338036293</v>
+        <v>0.9879863782956282</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2138,19 +2138,19 @@
         <v>311308</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299944</v>
+        <v>299369</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>319320</v>
+        <v>319353</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.932315839969671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8982830559626771</v>
+        <v>0.8965611583995714</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9563110309170598</v>
+        <v>0.9564107907590129</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>484</v>
@@ -2159,19 +2159,19 @@
         <v>515258</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>502202</v>
+        <v>502081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>525276</v>
+        <v>524213</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9475296215582083</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9235199704657377</v>
+        <v>0.9232982207520067</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9659524245718071</v>
+        <v>0.9639977360637174</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>123077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03756299990216581</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -2284,19 +2284,19 @@
         <v>93806</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02775978291489749</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>209</v>
@@ -2305,19 +2305,19 @@
         <v>216883</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03258579206000368</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3153466</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3128504</v>
+        <v>3127493</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3174367</v>
+        <v>3172639</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9624370000978342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9548185509146384</v>
+        <v>0.954510064495521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9688159124724904</v>
+        <v>0.9682886363029128</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3207</v>
@@ -2355,19 +2355,19 @@
         <v>3285391</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3265876</v>
+        <v>3262935</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3304934</v>
+        <v>3302656</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9722402170851026</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9664651541748703</v>
+        <v>0.9655947381832752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9780233931624757</v>
+        <v>0.9773492376717494</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6302</v>
@@ -2376,19 +2376,19 @@
         <v>6438858</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6404887</v>
+        <v>6407263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6466441</v>
+        <v>6467696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9674142079399963</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9623101164437681</v>
+        <v>0.9626670571483505</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9715583340923715</v>
+        <v>0.9717468768482306</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>20639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13178</v>
+        <v>13160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31261</v>
+        <v>31839</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04544540782968235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02901799232284596</v>
+        <v>0.0289784376166557</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06883502121212631</v>
+        <v>0.07010748233169221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2744,19 +2744,19 @@
         <v>8980</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4202</v>
+        <v>4005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17139</v>
+        <v>16293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.020873677874232</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009766502692710377</v>
+        <v>0.009308657932292953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03983634897201068</v>
+        <v>0.03787137903154519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2765,19 +2765,19 @@
         <v>29619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20073</v>
+        <v>20571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42440</v>
+        <v>41252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03349179184906806</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02269765484736789</v>
+        <v>0.02326016235509908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04798821456678561</v>
+        <v>0.04664486501945121</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>433507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422885</v>
+        <v>422307</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>440968</v>
+        <v>440986</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9545545921703177</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.931164978787874</v>
+        <v>0.9298925176683078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.970982007677154</v>
+        <v>0.9710215623833444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>412</v>
@@ -2815,19 +2815,19 @@
         <v>421250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413091</v>
+        <v>413937</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>426028</v>
+        <v>426225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.979126322125768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9601636510279893</v>
+        <v>0.9621286209684548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9902334973072896</v>
+        <v>0.990691342067707</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>837</v>
@@ -2836,19 +2836,19 @@
         <v>854757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>841936</v>
+        <v>843124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>864303</v>
+        <v>863805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966508208150932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9520117854332147</v>
+        <v>0.9533551349805488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9773023451526321</v>
+        <v>0.9767398376449011</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>33283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22373</v>
+        <v>23031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45790</v>
+        <v>46667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04844093363196649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03256250111973315</v>
+        <v>0.03352040719508452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06664401850651563</v>
+        <v>0.06792064356861154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2961,19 +2961,19 @@
         <v>12336</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6166</v>
+        <v>6194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22215</v>
+        <v>22091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02021487085131939</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01010446869384561</v>
+        <v>0.01014926408015824</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03640319216135996</v>
+        <v>0.03619998949200418</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2982,19 +2982,19 @@
         <v>45619</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33657</v>
+        <v>33051</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63922</v>
+        <v>62264</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03516370871908126</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02594296192616839</v>
+        <v>0.02547589812894203</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04927177660907929</v>
+        <v>0.04799388810649353</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>653804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641297</v>
+        <v>640420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>664714</v>
+        <v>664056</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9515590663680336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9333559814934845</v>
+        <v>0.932079356431388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9674374988802669</v>
+        <v>0.9664795928049155</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>561</v>
@@ -3032,19 +3032,19 @@
         <v>597919</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>588040</v>
+        <v>588164</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>604089</v>
+        <v>604061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9797851291486807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9635968078386395</v>
+        <v>0.9638000105079959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9898955313061542</v>
+        <v>0.9898507359198426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1197</v>
@@ -3053,19 +3053,19 @@
         <v>1251723</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1233420</v>
+        <v>1235078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1263685</v>
+        <v>1264291</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9648362912809187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9507282233909217</v>
+        <v>0.9520061118935063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9740570380738317</v>
+        <v>0.974524101871058</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>15467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8674</v>
+        <v>8796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26111</v>
+        <v>26610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02268345526738832</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01272034718183057</v>
+        <v>0.01290035397311588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03829357130481575</v>
+        <v>0.03902561885279824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3178,19 +3178,19 @@
         <v>11530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5851</v>
+        <v>6694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20339</v>
+        <v>20928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01622022328326911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008230726695705704</v>
+        <v>0.009417452319189792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02861217352652146</v>
+        <v>0.02944098880403498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -3199,19 +3199,19 @@
         <v>26997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17464</v>
+        <v>16867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40100</v>
+        <v>39226</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01938457854907448</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01253925695425334</v>
+        <v>0.01211117058246113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02879270138389904</v>
+        <v>0.02816521443540313</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>666396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655752</v>
+        <v>655253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673189</v>
+        <v>673067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9773165447326116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9617064286951842</v>
+        <v>0.9609743811472018</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9872796528181693</v>
+        <v>0.9870996460268842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -3249,19 +3249,19 @@
         <v>699320</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690511</v>
+        <v>689922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704999</v>
+        <v>704156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9837797767167309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9713878264734785</v>
+        <v>0.9705590111959648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9917692733042943</v>
+        <v>0.9905825476808102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1293</v>
@@ -3270,19 +3270,19 @@
         <v>1365715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1352612</v>
+        <v>1353486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1375248</v>
+        <v>1375845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9806154214509255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9712072986161009</v>
+        <v>0.9718347855645969</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9874607430457465</v>
+        <v>0.9878888294175391</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>8141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3915</v>
+        <v>4027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15208</v>
+        <v>15015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01324497462788572</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006370503778315423</v>
+        <v>0.006552519068869713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02474312381675144</v>
+        <v>0.02442953901494528</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3395,19 +3395,19 @@
         <v>19599</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11722</v>
+        <v>11161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31606</v>
+        <v>30014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03180572406009412</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01902277324166502</v>
+        <v>0.01811218062260869</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05129225713584219</v>
+        <v>0.04870848813884966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -3416,19 +3416,19 @@
         <v>27739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18490</v>
+        <v>19053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40348</v>
+        <v>41797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02253728082801327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0150226169791891</v>
+        <v>0.01547990885392057</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03278132383210525</v>
+        <v>0.03395857464820556</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>606476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>599409</v>
+        <v>599602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>610702</v>
+        <v>610590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9867550253721142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9752568761832489</v>
+        <v>0.9755704609850548</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9936294962216846</v>
+        <v>0.9934474809311303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>522</v>
@@ -3466,19 +3466,19 @@
         <v>596600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>584593</v>
+        <v>586185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>604477</v>
+        <v>605038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9681942759399059</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9487077428641587</v>
+        <v>0.95129151186115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9809772267583351</v>
+        <v>0.9818878193773911</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1062</v>
@@ -3487,19 +3487,19 @@
         <v>1203077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1190468</v>
+        <v>1189019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1212326</v>
+        <v>1211763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9774627191719867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9672186761678948</v>
+        <v>0.9660414253517942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9849773830208108</v>
+        <v>0.9845200911460794</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>4371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10987</v>
+        <v>10879</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01017920597722906</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002522497953054411</v>
+        <v>0.002541191818890834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02558578281122582</v>
+        <v>0.02533335845525641</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3612,19 +3612,19 @@
         <v>13941</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7468</v>
+        <v>7643</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22825</v>
+        <v>23291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03113328767315794</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01667625284824462</v>
+        <v>0.01706724591198478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05097174264139586</v>
+        <v>0.0520122617421435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3633,19 +3633,19 @@
         <v>18313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11760</v>
+        <v>10665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29297</v>
+        <v>28307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02087565590366781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01340588965657316</v>
+        <v>0.0121571446523332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03339715664111663</v>
+        <v>0.03226835671297233</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>425058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>418442</v>
+        <v>418550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428346</v>
+        <v>428338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9898207940227709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9744142171887742</v>
+        <v>0.9746666415447434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9974775020469455</v>
+        <v>0.9974588081811091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -3683,19 +3683,19 @@
         <v>433859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>424975</v>
+        <v>424509</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>440332</v>
+        <v>440157</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9688667123268421</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9490282573586041</v>
+        <v>0.9479877382578565</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9833237471517554</v>
+        <v>0.9829327540880152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>782</v>
@@ -3704,19 +3704,19 @@
         <v>858916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>847932</v>
+        <v>848922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>865469</v>
+        <v>866564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9791243440963322</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9666028433588835</v>
+        <v>0.9677316432870279</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9865941103434269</v>
+        <v>0.9878428553476668</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>7981</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3959</v>
+        <v>3941</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15767</v>
+        <v>15034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02576405344905205</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01278121353531263</v>
+        <v>0.01272177326278531</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05089626550407964</v>
+        <v>0.04852944224995081</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -3829,19 +3829,19 @@
         <v>12845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7050</v>
+        <v>7564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21034</v>
+        <v>20678</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03628585768748587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01991423683099876</v>
+        <v>0.02136671639485364</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0594183038924884</v>
+        <v>0.05841294544065553</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -3850,19 +3850,19 @@
         <v>20826</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13023</v>
+        <v>12989</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31599</v>
+        <v>30907</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03137534690116311</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01962000561240638</v>
+        <v>0.01956808717205694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04760423971006168</v>
+        <v>0.04656207943052434</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>301805</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>294019</v>
+        <v>294752</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>305827</v>
+        <v>305845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9742359465509479</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9491037344959201</v>
+        <v>0.951470557750048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9872187864646873</v>
+        <v>0.9872782267372147</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -3900,19 +3900,19 @@
         <v>341151</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>332962</v>
+        <v>333318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>346946</v>
+        <v>346432</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9637141423125142</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9405816961075115</v>
+        <v>0.9415870545593444</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9800857631690013</v>
+        <v>0.9786332836051462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>605</v>
@@ -3921,19 +3921,19 @@
         <v>642956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>632183</v>
+        <v>632875</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>650759</v>
+        <v>650793</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9686246530988368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.95239576028994</v>
+        <v>0.9534379205694762</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9803799943875938</v>
+        <v>0.9804319128279434</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>8433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4123</v>
+        <v>4084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15690</v>
+        <v>15921</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03375103497900901</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01650157864412403</v>
+        <v>0.01634761174325125</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06279624915183606</v>
+        <v>0.06372046826016231</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4046,19 +4046,19 @@
         <v>19099</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11688</v>
+        <v>11486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29908</v>
+        <v>29427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04910076157698505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03004901940194758</v>
+        <v>0.02952967598933206</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07688915717331006</v>
+        <v>0.07565080181171709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -4067,19 +4067,19 @@
         <v>27532</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18555</v>
+        <v>17926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40261</v>
+        <v>40014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04309737541063997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02904597488387352</v>
+        <v>0.02806053373056443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06302301348605299</v>
+        <v>0.06263704892606482</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>241418</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>234161</v>
+        <v>233930</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245728</v>
+        <v>245767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.966248965020991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9372037508481635</v>
+        <v>0.9362795317398377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.983498421355876</v>
+        <v>0.9836523882567488</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>333</v>
@@ -4117,19 +4117,19 @@
         <v>369880</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>359071</v>
+        <v>359552</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377291</v>
+        <v>377493</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9508992384230149</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9231108428266895</v>
+        <v>0.9243491981882842</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9699509805980515</v>
+        <v>0.970470324010668</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>547</v>
@@ -4138,19 +4138,19 @@
         <v>611298</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>598569</v>
+        <v>598816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>620275</v>
+        <v>620904</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.95690262458936</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.936976986513947</v>
+        <v>0.9373629510739351</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9709540251161265</v>
+        <v>0.9719394662694356</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>98315</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02869018174232161</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -4263,19 +4263,19 @@
         <v>98331</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02763425294399035</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>184</v>
@@ -4284,19 +4284,19 @@
         <v>196646</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0281522756962545</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3328464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3307612</v>
+        <v>3307212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3346735</v>
+        <v>3345798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9713098182576784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.965224851872857</v>
+        <v>0.9651080843258937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9766417607150616</v>
+        <v>0.9763683237202199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3208</v>
@@ -4334,19 +4334,19 @@
         <v>3459978</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3436974</v>
+        <v>3439032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3479740</v>
+        <v>3477422</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9723657470560096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9659008807596577</v>
+        <v>0.966479291580413</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9779195215403038</v>
+        <v>0.9772680825826006</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6323</v>
@@ -4355,19 +4355,19 @@
         <v>6788442</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6760060</v>
+        <v>6759075</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6815906</v>
+        <v>6815548</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9718477243037454</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9677845416050893</v>
+        <v>0.9676435152024353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9757794996178509</v>
+        <v>0.9757282974360615</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>17359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10704</v>
+        <v>10568</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27029</v>
+        <v>27721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0413850386414363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02551893548230937</v>
+        <v>0.02519488290254748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06443644220316734</v>
+        <v>0.06608713678140796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4723,19 +4723,19 @@
         <v>4977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1794</v>
+        <v>1897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10894</v>
+        <v>10854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01257495019778483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004533683698948142</v>
+        <v>0.004793697876044081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02752781447101612</v>
+        <v>0.02742507819199624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -4744,19 +4744,19 @@
         <v>22336</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13483</v>
+        <v>14517</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33050</v>
+        <v>34710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02739891883451766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01653948107278948</v>
+        <v>0.01780758004180554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04054157640675801</v>
+        <v>0.04257706254082506</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>402104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392434</v>
+        <v>391742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408759</v>
+        <v>408895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9586149613585637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9355635577968326</v>
+        <v>0.933912863218592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.974481064517691</v>
+        <v>0.9748051170974528</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>399</v>
@@ -4794,19 +4794,19 @@
         <v>390778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384861</v>
+        <v>384901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393961</v>
+        <v>393858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9874250498022151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9724721855289842</v>
+        <v>0.9725749218080034</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9954663163010519</v>
+        <v>0.9952063021239558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>776</v>
@@ -4815,19 +4815,19 @@
         <v>792882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>782168</v>
+        <v>780508</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>801735</v>
+        <v>800701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9726010811654824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9594584235932418</v>
+        <v>0.9574229374591751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9834605189272103</v>
+        <v>0.9821924199581944</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>22131</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13816</v>
+        <v>14425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32134</v>
+        <v>33015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03747896319823048</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02339710467919435</v>
+        <v>0.02442834007518134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05441937905919348</v>
+        <v>0.05591003164602975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4940,19 +4940,19 @@
         <v>9232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4729</v>
+        <v>4605</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17010</v>
+        <v>17406</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01638127928263737</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008391861876663274</v>
+        <v>0.008172380670091541</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03018422354517426</v>
+        <v>0.030885835774578</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -4961,19 +4961,19 @@
         <v>31363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22049</v>
+        <v>21608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45179</v>
+        <v>43867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0271764892193063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01910594321273564</v>
+        <v>0.01872384427977569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0391486305413135</v>
+        <v>0.0380120902428292</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>568365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558362</v>
+        <v>557481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>576680</v>
+        <v>576071</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9625210368017695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9455806209408069</v>
+        <v>0.944089968353971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9766028953208058</v>
+        <v>0.975571659924819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -5011,19 +5011,19 @@
         <v>554312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>546534</v>
+        <v>546138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>558815</v>
+        <v>558939</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9836187207173627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9698157764548258</v>
+        <v>0.9691141642254221</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9916081381233367</v>
+        <v>0.9918276193299085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1115</v>
@@ -5032,19 +5032,19 @@
         <v>1122677</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1108861</v>
+        <v>1110173</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1131991</v>
+        <v>1132432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9728235107806937</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9608513694586867</v>
+        <v>0.961987909757171</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9808940567872645</v>
+        <v>0.9812761557202243</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>20261</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12668</v>
+        <v>12653</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31554</v>
+        <v>31986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03028080046804897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01893324352399641</v>
+        <v>0.01891120173171099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04715944319035459</v>
+        <v>0.04780454171190011</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -5157,19 +5157,19 @@
         <v>11215</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5371</v>
+        <v>5873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20160</v>
+        <v>20639</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01695700921735896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008121491896189719</v>
+        <v>0.008879578066549591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03048181807537958</v>
+        <v>0.0312059193578549</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -5178,19 +5178,19 @@
         <v>31476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22357</v>
+        <v>22028</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45813</v>
+        <v>44983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02365751184097779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01680378617347457</v>
+        <v>0.01655646836437068</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03443333242051397</v>
+        <v>0.03380932542530445</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>648836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637543</v>
+        <v>637111</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656429</v>
+        <v>656444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9697191995319511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9528405568096454</v>
+        <v>0.9521954582880997</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9810667564760036</v>
+        <v>0.981088798268289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>655</v>
@@ -5228,19 +5228,19 @@
         <v>650171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641226</v>
+        <v>640747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656015</v>
+        <v>655513</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.983042990782641</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9695181819246204</v>
+        <v>0.9687940806421453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9918785081038103</v>
+        <v>0.9911204219334504</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1274</v>
@@ -5249,19 +5249,19 @@
         <v>1299007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1284670</v>
+        <v>1285500</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1308126</v>
+        <v>1308455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9763424881590222</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9655666675794859</v>
+        <v>0.9661906745746955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9831962138265254</v>
+        <v>0.9834435316356293</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>12461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6841</v>
+        <v>6118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22061</v>
+        <v>21585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01928847115011036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01058908595378243</v>
+        <v>0.009469764308122892</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03414787401447905</v>
+        <v>0.03341122445198016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5374,19 +5374,19 @@
         <v>10133</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4389</v>
+        <v>4840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17865</v>
+        <v>18581</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01561087385805902</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006761635889814065</v>
+        <v>0.007456910330815499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02752425834932164</v>
+        <v>0.02862623385893839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -5395,19 +5395,19 @@
         <v>22594</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14213</v>
+        <v>15252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34407</v>
+        <v>35200</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01744537248697749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01097441886819168</v>
+        <v>0.01177623132125705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02656631148443406</v>
+        <v>0.02717896039550384</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>633587</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>623987</v>
+        <v>624463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639207</v>
+        <v>639930</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807115288498897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9658521259855213</v>
+        <v>0.9665887755480201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9894109140462177</v>
+        <v>0.9905302356918771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>593</v>
@@ -5445,19 +5445,19 @@
         <v>638944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>631212</v>
+        <v>630496</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>644688</v>
+        <v>644237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.984389126141941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9724757416506785</v>
+        <v>0.9713737661410616</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.993238364110186</v>
+        <v>0.9925430896691846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1164</v>
@@ -5466,19 +5466,19 @@
         <v>1272531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1260718</v>
+        <v>1259925</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1280912</v>
+        <v>1279873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9825546275130225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9734336885155659</v>
+        <v>0.972821039604496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9890255811318083</v>
+        <v>0.988223768678743</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>4106</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9397</v>
+        <v>9443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008591523209138131</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002176450655244459</v>
+        <v>0.002094653703328984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01966314190551256</v>
+        <v>0.01975904599812634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5591,19 +5591,19 @@
         <v>14416</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7439</v>
+        <v>7357</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24721</v>
+        <v>24517</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02901393900260267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01497188350730972</v>
+        <v>0.01480770734179763</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04975528228243543</v>
+        <v>0.04934456993753537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -5612,19 +5612,19 @@
         <v>18522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10354</v>
+        <v>10585</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29683</v>
+        <v>29626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0190010435297498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01062211854935659</v>
+        <v>0.01085902252858462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03045102934755425</v>
+        <v>0.03039250164233033</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>473812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>468521</v>
+        <v>468475</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>476878</v>
+        <v>476917</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9914084767908619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9803368580944876</v>
+        <v>0.9802409540018737</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9978235493447556</v>
+        <v>0.997905346296671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -5662,19 +5662,19 @@
         <v>482433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>472128</v>
+        <v>472332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489410</v>
+        <v>489492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9709860609973974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9502447177175658</v>
+        <v>0.9506554300624642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9850281164926903</v>
+        <v>0.9851922926582024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>841</v>
@@ -5683,19 +5683,19 @@
         <v>956245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>945084</v>
+        <v>945141</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>964413</v>
+        <v>964182</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9809989564702501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9695489706524457</v>
+        <v>0.9696074983576696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9893778814506433</v>
+        <v>0.9891409774714153</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>4709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1847</v>
+        <v>1757</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11400</v>
+        <v>10356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01408552207114629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005523553682172738</v>
+        <v>0.005256601734960862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03409824374120644</v>
+        <v>0.030976667268248</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5808,19 +5808,19 @@
         <v>15994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9776</v>
+        <v>9543</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26752</v>
+        <v>25468</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0423379453904882</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.025879601830192</v>
+        <v>0.02526138755718387</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0708170128020723</v>
+        <v>0.06741826140304426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -5829,19 +5829,19 @@
         <v>20703</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13612</v>
+        <v>12674</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31325</v>
+        <v>31408</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02907332138188125</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0191161134632079</v>
+        <v>0.0177983844705227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04399043611540648</v>
+        <v>0.04410628337643214</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>329621</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>322930</v>
+        <v>323974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332483</v>
+        <v>332573</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9859144779288537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9659017562587936</v>
+        <v>0.9690233327317551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9944764463178272</v>
+        <v>0.9947433982650393</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>339</v>
@@ -5879,19 +5879,19 @@
         <v>361768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>351010</v>
+        <v>352294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>367986</v>
+        <v>368219</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9576620546095118</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.929182987197928</v>
+        <v>0.9325817385969558</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9741203981698083</v>
+        <v>0.9747386124428163</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -5900,19 +5900,19 @@
         <v>691389</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>680767</v>
+        <v>680684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>698480</v>
+        <v>699418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9709266786181188</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9560095638845936</v>
+        <v>0.9558937166235677</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.980883886536792</v>
+        <v>0.982201615529477</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>8083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4018</v>
+        <v>4066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13849</v>
+        <v>14044</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03145180894715122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01563245554361293</v>
+        <v>0.0158200556677269</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05388588934569574</v>
+        <v>0.05464596281318898</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -6025,19 +6025,19 @@
         <v>21545</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12724</v>
+        <v>12738</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32865</v>
+        <v>32128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05383851010065356</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03179639344299854</v>
+        <v>0.0318303095947905</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08212855520571091</v>
+        <v>0.08028581014035964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -6046,19 +6046,19 @@
         <v>29628</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19948</v>
+        <v>19709</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42908</v>
+        <v>43649</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04508375302589097</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03035446536255152</v>
+        <v>0.02999092688604404</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06529301192797043</v>
+        <v>0.0664199956102581</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>248915</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243149</v>
+        <v>242954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252980</v>
+        <v>252932</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9685481910528487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9461141106543043</v>
+        <v>0.945354037186811</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9843675444563871</v>
+        <v>0.9841799443322731</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -6096,19 +6096,19 @@
         <v>378624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>367304</v>
+        <v>368041</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387445</v>
+        <v>387431</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9461614898993465</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9178714447942895</v>
+        <v>0.9197141898596403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9682036065570014</v>
+        <v>0.9681696904052095</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>576</v>
@@ -6117,19 +6117,19 @@
         <v>627539</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>614259</v>
+        <v>613518</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>637219</v>
+        <v>637458</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.954916246974109</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.934706988072029</v>
+        <v>0.9335800043897418</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9696455346374484</v>
+        <v>0.9700090731139557</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>89111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02625275820042077</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -6242,19 +6242,19 @@
         <v>87510</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02468857051486613</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>164</v>
@@ -6263,19 +6263,19 @@
         <v>176621</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02545373601180825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3305239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3284767</v>
+        <v>3284423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3322336</v>
+        <v>3322190</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9737472417995793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9677159512437985</v>
+        <v>0.9676147647904958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9787842405706552</v>
+        <v>0.9787410249790508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3261</v>
@@ -6313,19 +6313,19 @@
         <v>3457032</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3435639</v>
+        <v>3436415</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3476998</v>
+        <v>3474586</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9753114294851338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9692757586883254</v>
+        <v>0.9694947967832936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9809441270658641</v>
+        <v>0.9802636961759223</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6405</v>
@@ -6334,19 +6334,19 @@
         <v>6762271</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6736162</v>
+        <v>6733617</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6786745</v>
+        <v>6787183</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9745462639881918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9707835127586403</v>
+        <v>0.970416737215842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9780732637030122</v>
+        <v>0.9781364232218036</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>8218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24207</v>
+        <v>23834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02015183608173895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003692294060030278</v>
+        <v>0.003660390376551355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05936125894833779</v>
+        <v>0.05844519899734164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6702,19 +6702,19 @@
         <v>9401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3421</v>
+        <v>2373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28065</v>
+        <v>24368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02593210423716105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009435813380159965</v>
+        <v>0.006546509811866519</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07741693727975893</v>
+        <v>0.0672200141249384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -6723,19 +6723,19 @@
         <v>17618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7713</v>
+        <v>7451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35956</v>
+        <v>39197</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02287207848248698</v>
+        <v>0.02287207848248697</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01001342634319298</v>
+        <v>0.009673418375562614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04667734161209364</v>
+        <v>0.05088530453169424</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>399575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>383586</v>
+        <v>383959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406287</v>
+        <v>406300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.979848163918261</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9406387410516622</v>
+        <v>0.9415548010026584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9963077059399698</v>
+        <v>0.9963396096234486</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -6773,19 +6773,19 @@
         <v>353111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334447</v>
+        <v>338144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359091</v>
+        <v>360139</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.974067895762839</v>
+        <v>0.9740678957628389</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9225830627202413</v>
+        <v>0.9327799858750617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9905641866198399</v>
+        <v>0.9934534901881336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>372</v>
@@ -6794,19 +6794,19 @@
         <v>752687</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>734349</v>
+        <v>731108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762592</v>
+        <v>762854</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9771279215175132</v>
+        <v>0.977127921517513</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9533226583879066</v>
+        <v>0.9491146954683057</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989986573656807</v>
+        <v>0.9903265816244372</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>15735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7812</v>
+        <v>6787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30205</v>
+        <v>28693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0329944832708042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01638116031986402</v>
+        <v>0.01423253069868311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0633365555858138</v>
+        <v>0.06016670180656392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6919,19 +6919,19 @@
         <v>5065</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1826</v>
+        <v>1847</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10939</v>
+        <v>12441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01010728263865133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00364311889928091</v>
+        <v>0.00368548373046139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02182999329890533</v>
+        <v>0.02482726813122857</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -6940,19 +6940,19 @@
         <v>20799</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11355</v>
+        <v>11115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34691</v>
+        <v>33145</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02126779444589044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01161085002191369</v>
+        <v>0.01136580278149011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03547192427419028</v>
+        <v>0.03389153085619106</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>461155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>446685</v>
+        <v>448197</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469078</v>
+        <v>470103</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9670055167291958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9366634444141863</v>
+        <v>0.9398332981934363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9836188396801361</v>
+        <v>0.985767469301317</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -6990,19 +6990,19 @@
         <v>496018</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490144</v>
+        <v>488642</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499257</v>
+        <v>499236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9898927173613487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9781700067010947</v>
+        <v>0.9751727318687714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9963568811007191</v>
+        <v>0.9963145162695386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -7011,19 +7011,19 @@
         <v>957174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>943282</v>
+        <v>944828</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>966618</v>
+        <v>966858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9787322055541096</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9645280757258097</v>
+        <v>0.9661084691438089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9883891499780862</v>
+        <v>0.9886341972185098</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>11859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6293</v>
+        <v>5904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22077</v>
+        <v>20998</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01910114621808853</v>
+        <v>0.01910114621808852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01013572917010778</v>
+        <v>0.009510004576513258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03556027076844108</v>
+        <v>0.03382224251520133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -7136,19 +7136,19 @@
         <v>10321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5752</v>
+        <v>6016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17198</v>
+        <v>17058</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01658954910147446</v>
+        <v>0.01658954910147445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009244813371066538</v>
+        <v>0.009669539609920641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0276425824117807</v>
+        <v>0.02741899397338496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -7157,19 +7157,19 @@
         <v>22180</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14627</v>
+        <v>14667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32587</v>
+        <v>33351</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01784403179547452</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01176808538168894</v>
+        <v>0.01180018077326562</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02621651680321077</v>
+        <v>0.02683156753767181</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>608978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>598760</v>
+        <v>599839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>614544</v>
+        <v>614933</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9808988537819116</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9644397292315581</v>
+        <v>0.9661777574847985</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898642708298921</v>
+        <v>0.9904899954234867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>831</v>
@@ -7207,19 +7207,19 @@
         <v>611818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>604941</v>
+        <v>605081</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616387</v>
+        <v>616123</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9834104508985256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9723574175882177</v>
+        <v>0.9725810060266149</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9907551866289335</v>
+        <v>0.9903304603900797</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -7228,19 +7228,19 @@
         <v>1220796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1210389</v>
+        <v>1209625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1228349</v>
+        <v>1228309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9821559682045254</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9737834831967892</v>
+        <v>0.9731684324623276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9882319146183111</v>
+        <v>0.9881998192267342</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>22526</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14466</v>
+        <v>13379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34630</v>
+        <v>35080</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03215123996094076</v>
+        <v>0.03215123996094074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02064732825495389</v>
+        <v>0.01909544567044343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.049428282116493</v>
+        <v>0.05007075366645562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -7353,19 +7353,19 @@
         <v>12832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7952</v>
+        <v>7655</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20651</v>
+        <v>20287</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01741410806398454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01079191423122986</v>
+        <v>0.01038851963581114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02802525912243102</v>
+        <v>0.02753019440658369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -7374,19 +7374,19 @@
         <v>35358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24697</v>
+        <v>25000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48520</v>
+        <v>49257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02459675995965939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01718052485000571</v>
+        <v>0.01739159278700582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03375324130539909</v>
+        <v>0.0342659329695636</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>678091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>665987</v>
+        <v>665537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>686151</v>
+        <v>687238</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9678487600390594</v>
+        <v>0.9678487600390593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9505717178835071</v>
+        <v>0.9499292463335444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9793526717450463</v>
+        <v>0.9809045543295565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1122</v>
@@ -7424,19 +7424,19 @@
         <v>724054</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>716235</v>
+        <v>716599</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>728934</v>
+        <v>729231</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9825858919360155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9719747408775685</v>
+        <v>0.9724698055934158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9892080857687698</v>
+        <v>0.9896114803641887</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1768</v>
@@ -7445,19 +7445,19 @@
         <v>1402146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1388984</v>
+        <v>1388247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1412807</v>
+        <v>1412504</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9754032400403406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9662467586946013</v>
+        <v>0.9657340670304363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9828194751499949</v>
+        <v>0.9826084072129945</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>7303</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3937</v>
+        <v>3599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14733</v>
+        <v>13736</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01198510592201852</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00646054534280451</v>
+        <v>0.005906967228985584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02417841646406261</v>
+        <v>0.0225417339657767</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -7570,19 +7570,19 @@
         <v>14327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9150</v>
+        <v>8961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21343</v>
+        <v>20843</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02353116144019791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01502794198842538</v>
+        <v>0.01471717412917392</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03505425414874141</v>
+        <v>0.03423303410481767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -7591,19 +7591,19 @@
         <v>21630</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15506</v>
+        <v>15266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30963</v>
+        <v>30999</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01775580663849152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01272868268658652</v>
+        <v>0.01253184714038399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02541727370732394</v>
+        <v>0.02544669520994242</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>602043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>594613</v>
+        <v>595610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>605409</v>
+        <v>605747</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9880148940779813</v>
+        <v>0.9880148940779815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9758215835359373</v>
+        <v>0.9774582660342235</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9935394546571956</v>
+        <v>0.9940930327710147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>980</v>
@@ -7641,19 +7641,19 @@
         <v>594528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>587512</v>
+        <v>588012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>599705</v>
+        <v>599894</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9764688385598019</v>
+        <v>0.9764688385598022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9649457458512585</v>
+        <v>0.9657669658951825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9849720580115744</v>
+        <v>0.9852828258708263</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1634</v>
@@ -7662,19 +7662,19 @@
         <v>1196572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1187239</v>
+        <v>1187203</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1202696</v>
+        <v>1202936</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9822441933615085</v>
+        <v>0.9822441933615083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9745827262926758</v>
+        <v>0.9745533047900576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9872713173134133</v>
+        <v>0.987468152859616</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>7002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3526</v>
+        <v>3452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12251</v>
+        <v>11815</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01719964963781008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008661160913550849</v>
+        <v>0.008479536653021511</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03009467874693801</v>
+        <v>0.02902425730090897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -7787,19 +7787,19 @@
         <v>18759</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13623</v>
+        <v>13252</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25903</v>
+        <v>25374</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04271543455000177</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03101943669931414</v>
+        <v>0.03017615481838496</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0589817426207792</v>
+        <v>0.05777772374755746</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7808,19 +7808,19 @@
         <v>25761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19127</v>
+        <v>19280</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33783</v>
+        <v>34471</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03044127333136376</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02260272761647006</v>
+        <v>0.02278296329306992</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03992090502196179</v>
+        <v>0.04073441503429037</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>400078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>394829</v>
+        <v>395265</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>403554</v>
+        <v>403628</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9828003503621898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9699053212530618</v>
+        <v>0.9709757426990911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.991338839086449</v>
+        <v>0.9915204633469785</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>791</v>
@@ -7858,19 +7858,19 @@
         <v>420407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>413263</v>
+        <v>413792</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>425543</v>
+        <v>425914</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9572845654499983</v>
+        <v>0.9572845654499981</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9410182573792216</v>
+        <v>0.9422222762524427</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.968980563300686</v>
+        <v>0.9698238451816154</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1350</v>
@@ -7879,19 +7879,19 @@
         <v>820485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>812463</v>
+        <v>811775</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>827119</v>
+        <v>826966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9695587266686363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9600790949780382</v>
+        <v>0.9592655849657097</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.97739727238353</v>
+        <v>0.9772170367069302</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>9701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5732</v>
+        <v>5630</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15774</v>
+        <v>15947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03127443825806583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01847920819459963</v>
+        <v>0.0181482392417824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05085158392162539</v>
+        <v>0.05140928353088531</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -8004,19 +8004,19 @@
         <v>28734</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21821</v>
+        <v>22103</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37348</v>
+        <v>37248</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06184453406293846</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04696711253646906</v>
+        <v>0.04757387478590581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08038634384402381</v>
+        <v>0.08017002833889104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -8025,19 +8025,19 @@
         <v>38435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30581</v>
+        <v>30852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49423</v>
+        <v>48006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04960562867256992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03946898193580409</v>
+        <v>0.03981944652805929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06378741815778669</v>
+        <v>0.06195929738098661</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>300497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>294424</v>
+        <v>294251</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304466</v>
+        <v>304568</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9687255617419341</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9491484160783746</v>
+        <v>0.9485907164691146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9815207918054004</v>
+        <v>0.9818517607582175</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>824</v>
@@ -8075,19 +8075,19 @@
         <v>435875</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>427261</v>
+        <v>427361</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>442788</v>
+        <v>442506</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9381554659370616</v>
+        <v>0.9381554659370615</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9196136561559761</v>
+        <v>0.9198299716611089</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9530328874635309</v>
+        <v>0.9524261252140942</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1265</v>
@@ -8096,19 +8096,19 @@
         <v>736372</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>725384</v>
+        <v>726801</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>744226</v>
+        <v>743955</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9503943713274302</v>
+        <v>0.9503943713274301</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9362125818422137</v>
+        <v>0.9380407026190134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9605310180641962</v>
+        <v>0.9601805534719409</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>82343</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02330837049640188</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>158</v>
@@ -8221,19 +8221,19 @@
         <v>99438</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02662157956320406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -8242,19 +8242,19 @@
         <v>181781</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02501112860550918</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3450419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3427952</v>
+        <v>3427675</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3471158</v>
+        <v>3467727</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9766916295035981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9703320011965118</v>
+        <v>0.9702535029024173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9825620257763785</v>
+        <v>0.9815910127409874</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5206</v>
@@ -8292,19 +8292,19 @@
         <v>3635813</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3617408</v>
+        <v>3614641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3652115</v>
+        <v>3650297</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.973378420436796</v>
+        <v>0.9733784204367959</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9684510526500077</v>
+        <v>0.9677103678299867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9777428757649695</v>
+        <v>0.9772561317045279</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8503</v>
@@ -8313,19 +8313,19 @@
         <v>7086232</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7058943</v>
+        <v>7056996</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7112441</v>
+        <v>7111444</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9749888713944908</v>
+        <v>0.974988871394491</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.971234208066025</v>
+        <v>0.9709663352423558</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9785950240571465</v>
+        <v>0.9784578302483575</v>
       </c>
     </row>
     <row r="27">
